--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -635,27 +635,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 4779-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 4779-2019.xlsx", "A 4779-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 4779-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 4779-2019.png", "A 4779-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 4779-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 4779-2019.docx", "A 4779-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 4779-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 4779-2019.docx", "A 4779-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 4779-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 4779-2019.docx", "A 4779-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 4779-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 4779-2019.docx", "A 4779-2019")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -732,27 +732,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 29817-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 29817-2021.xlsx", "A 29817-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 29817-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 29817-2021.png", "A 29817-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 29817-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 29817-2021.docx", "A 29817-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 29817-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 29817-2021.docx", "A 29817-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 29817-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 29817-2021.docx", "A 29817-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 29817-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 29817-2021.docx", "A 29817-2021")</f>
         <v/>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -824,27 +824,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 48658-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 48658-2022.xlsx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 48658-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 48658-2022.png", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 48658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 48658-2022.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 48658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 48658-2022.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 48658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 48658-2022.docx", "A 48658-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 48658-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 48658-2022.docx", "A 48658-2022")</f>
         <v/>
       </c>
     </row>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,27 +916,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 29818-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 29818-2021.xlsx", "A 29818-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 29818-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 29818-2021.png", "A 29818-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 29818-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 29818-2021.docx", "A 29818-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 29818-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 29818-2021.docx", "A 29818-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 29818-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 29818-2021.docx", "A 29818-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 29818-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 29818-2021.docx", "A 29818-2021")</f>
         <v/>
       </c>
     </row>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1003,27 +1003,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 1244-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 1244-2022.xlsx", "A 1244-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 1244-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 1244-2022.png", "A 1244-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 1244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 1244-2022.docx", "A 1244-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 1244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 1244-2022.docx", "A 1244-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 1244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 1244-2022.docx", "A 1244-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 1244-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 1244-2022.docx", "A 1244-2022")</f>
         <v/>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1090,27 +1090,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 48691-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 48691-2022.xlsx", "A 48691-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 48691-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 48691-2022.png", "A 48691-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 48691-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 48691-2022.docx", "A 48691-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 48691-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 48691-2022.docx", "A 48691-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 48691-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 48691-2022.docx", "A 48691-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 48691-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 48691-2022.docx", "A 48691-2022")</f>
         <v/>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,27 +1177,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 33166-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 33166-2023.xlsx", "A 33166-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 33166-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 33166-2023.png", "A 33166-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 33166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 33166-2023.docx", "A 33166-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 33166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 33166-2023.docx", "A 33166-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 33166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 33166-2023.docx", "A 33166-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 33166-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 33166-2023.docx", "A 33166-2023")</f>
         <v/>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1268,27 +1268,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 4798-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 4798-2019.xlsx", "A 4798-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 4798-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 4798-2019.png", "A 4798-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 4798-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 4798-2019.docx", "A 4798-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 4798-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 4798-2019.docx", "A 4798-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 4798-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 4798-2019.docx", "A 4798-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 4798-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 4798-2019.docx", "A 4798-2019")</f>
         <v/>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1354,27 +1354,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 9607-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 9607-2019.xlsx", "A 9607-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 9607-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 9607-2019.png", "A 9607-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 9607-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 9607-2019.docx", "A 9607-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 9607-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 9607-2019.docx", "A 9607-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 9607-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 9607-2019.docx", "A 9607-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 9607-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 9607-2019.docx", "A 9607-2019")</f>
         <v/>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1440,27 +1440,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 37730-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 37730-2019.xlsx", "A 37730-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 37730-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 37730-2019.png", "A 37730-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 37730-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 37730-2019.docx", "A 37730-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 37730-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 37730-2019.docx", "A 37730-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 37730-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 37730-2019.docx", "A 37730-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 37730-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 37730-2019.docx", "A 37730-2019")</f>
         <v/>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,27 +1526,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 16084-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 16084-2021.xlsx", "A 16084-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 16084-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 16084-2021.png", "A 16084-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 16084-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 16084-2021.docx", "A 16084-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 16084-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 16084-2021.docx", "A 16084-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 16084-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 16084-2021.docx", "A 16084-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 16084-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 16084-2021.docx", "A 16084-2021")</f>
         <v/>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1612,27 +1612,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 33165-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 33165-2023.xlsx", "A 33165-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 33165-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 33165-2023.png", "A 33165-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 33165-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 33165-2023.docx", "A 33165-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 33165-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 33165-2023.docx", "A 33165-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 33165-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 33165-2023.docx", "A 33165-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 33165-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 33165-2023.docx", "A 33165-2023")</f>
         <v/>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1702,27 +1702,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 2207-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 2207-2019.xlsx", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 2207-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 2207-2019.png", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 2207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 2207-2019.docx", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 2207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 2207-2019.docx", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 2207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 2207-2019.docx", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 2207-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 2207-2019.docx", "A 2207-2019")</f>
         <v/>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1792,27 +1792,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 71315-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 71315-2021.xlsx", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 71315-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 71315-2021.png", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 71315-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 71315-2021.docx", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 71315-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 71315-2021.docx", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 71315-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 71315-2021.docx", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 71315-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 71315-2021.docx", "A 71315-2021")</f>
         <v/>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1877,27 +1877,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 30154-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 30154-2022.xlsx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 30154-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 30154-2022.png", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 30154-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 30154-2022.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 30154-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 30154-2022.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 30154-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 30154-2022.docx", "A 30154-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 30154-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 30154-2022.docx", "A 30154-2022")</f>
         <v/>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>43475</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44539</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>44757</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>43342</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         <v>43474</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         <v>43508</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>43544</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>43593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2538,7 +2538,7 @@
         <v>43635</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>43640</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2652,7 +2652,7 @@
         <v>43741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>43843</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>44062</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         <v>44153</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>44161</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44277</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44287</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         <v>44288</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>44327</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>44412</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44440</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>44544</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>44582</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>44587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44615</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>44700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>44785</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>44876</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44918</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44938</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44972</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>45009</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>45048</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>45054</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>45109</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45120</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>45124</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>45126</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>45147</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5081,7 +5081,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,14 +1639,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 2207-2019</t>
+          <t>A 35554-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>43475</v>
+        <v>45147</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1658,13 +1658,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1676,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1688,55 +1683,56 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Grangråticka
+Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 2207-2019.xlsx", "A 2207-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 35554-2023.xlsx", "A 35554-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 2207-2019.png", "A 2207-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 35554-2023.png", "A 35554-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 2207-2019.docx", "A 2207-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 35554-2023.docx", "A 35554-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 2207-2019.docx", "A 2207-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 35554-2023.docx", "A 35554-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 2207-2019.docx", "A 2207-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 35554-2023.docx", "A 35554-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 2207-2019.docx", "A 2207-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 35554-2023.docx", "A 35554-2023")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 71315-2021</t>
+          <t>A 2207-2019</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44539</v>
+        <v>43475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1754,7 +1750,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1788,45 +1784,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 71315-2021.xlsx", "A 71315-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 2207-2019.xlsx", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 71315-2021.png", "A 71315-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 2207-2019.png", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 71315-2021.docx", "A 71315-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 2207-2019.docx", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 71315-2021.docx", "A 71315-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 2207-2019.docx", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 71315-2021.docx", "A 71315-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 2207-2019.docx", "A 2207-2019")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 71315-2021.docx", "A 71315-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 2207-2019.docx", "A 2207-2019")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 30154-2022</t>
+          <t>A 71315-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44757</v>
+        <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1838,17 +1834,22 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1863,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1873,45 +1874,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 30154-2022.xlsx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 71315-2021.xlsx", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 30154-2022.png", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 71315-2021.png", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 30154-2022.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 71315-2021.docx", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 30154-2022.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 71315-2021.docx", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 30154-2022.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 71315-2021.docx", "A 71315-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 30154-2022.docx", "A 30154-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 71315-2021.docx", "A 71315-2021")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 41863-2018</t>
+          <t>A 30154-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>43342</v>
+        <v>44757</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1924,7 +1925,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1933,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1948,27 +1949,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/artfynd/A 30154-2022.xlsx", "A 30154-2022")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/kartor/A 30154-2022.png", "A 30154-2022")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomål/A 30154-2022.docx", "A 30154-2022")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/klagomålsmail/A 30154-2022.docx", "A 30154-2022")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsyn/A 30154-2022.docx", "A 30154-2022")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VARMDO/tillsynsmail/A 30154-2022.docx", "A 30154-2022")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 1942-2019</t>
+          <t>A 41863-2018</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>43474</v>
+        <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1981,7 +2010,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2018,14 +2047,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 9569-2019</t>
+          <t>A 1942-2019</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43508</v>
+        <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2038,7 +2067,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2075,14 +2104,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 9619-2019</t>
+          <t>A 9569-2019</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2095,7 +2124,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,14 +2161,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 9722-2019</t>
+          <t>A 9619-2019</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2152,7 +2181,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2189,14 +2218,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 9723-2019</t>
+          <t>A 9722-2019</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2209,7 +2238,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2246,14 +2275,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 9550-2019</t>
+          <t>A 9723-2019</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2266,7 +2295,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2303,14 +2332,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 9605-2019</t>
+          <t>A 9550-2019</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2323,7 +2352,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2360,14 +2389,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 9725-2019</t>
+          <t>A 9605-2019</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2380,7 +2409,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2417,14 +2446,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 15979-2019</t>
+          <t>A 9725-2019</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43544</v>
+        <v>43508</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2437,7 +2466,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2474,14 +2503,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23342-2019</t>
+          <t>A 15979-2019</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43593</v>
+        <v>43544</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2494,7 +2523,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2531,14 +2560,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30529-2019</t>
+          <t>A 23342-2019</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>43635</v>
+        <v>43593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2551,7 +2580,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2588,14 +2617,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31211-2019</t>
+          <t>A 30529-2019</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43640</v>
+        <v>43635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2608,7 +2637,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2645,14 +2674,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 51938-2019</t>
+          <t>A 31211-2019</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43741</v>
+        <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2665,7 +2694,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2702,14 +2731,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 1388-2020</t>
+          <t>A 51938-2019</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43843</v>
+        <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2721,13 +2750,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2764,14 +2788,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 39033-2020</t>
+          <t>A 1388-2020</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44062</v>
+        <v>43843</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2783,8 +2807,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2821,14 +2850,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 61048-2020</t>
+          <t>A 39033-2020</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44153</v>
+        <v>44062</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2841,7 +2870,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2878,14 +2907,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 63492-2020</t>
+          <t>A 61048-2020</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44161</v>
+        <v>44153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2898,7 +2927,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2935,14 +2964,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 14014-2021</t>
+          <t>A 63492-2020</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44277</v>
+        <v>44161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2954,13 +2983,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2997,14 +3021,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 14006-2021</t>
+          <t>A 14014-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3022,7 +3046,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3059,14 +3083,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14008-2021</t>
+          <t>A 14006-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,7 +3108,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3121,14 +3145,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15926-2021</t>
+          <t>A 14008-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44287</v>
+        <v>44277</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3140,8 +3164,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3178,14 +3207,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16090-2021</t>
+          <t>A 15926-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44288</v>
+        <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3198,7 +3227,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3235,14 +3264,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 16086-2021</t>
+          <t>A 16090-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3255,7 +3284,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3292,14 +3321,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 16085-2021</t>
+          <t>A 16086-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3312,7 +3341,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3349,14 +3378,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 16091-2021</t>
+          <t>A 16085-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3369,7 +3398,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3406,14 +3435,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 16087-2021</t>
+          <t>A 16091-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3426,7 +3455,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3463,14 +3492,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 22479-2021</t>
+          <t>A 16087-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44322</v>
+        <v>44288</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3483,7 +3512,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3520,14 +3549,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 22708-2021</t>
+          <t>A 22479-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44327</v>
+        <v>44322</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3539,13 +3568,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3582,14 +3606,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39070-2021</t>
+          <t>A 22708-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44412</v>
+        <v>44327</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3601,8 +3625,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3639,14 +3668,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39082-2021</t>
+          <t>A 39070-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3659,7 +3688,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3696,14 +3725,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 45572-2021</t>
+          <t>A 39082-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44440</v>
+        <v>44412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3716,7 +3745,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3753,14 +3782,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72176-2021</t>
+          <t>A 45572-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44544</v>
+        <v>44440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3773,7 +3802,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3810,14 +3839,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 72097-2021</t>
+          <t>A 72176-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3830,7 +3859,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3867,14 +3896,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 72108-2021</t>
+          <t>A 72097-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3887,7 +3916,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3924,14 +3953,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 3057-2022</t>
+          <t>A 72108-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44582</v>
+        <v>44544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3944,7 +3973,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3981,14 +4010,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 3827-2022</t>
+          <t>A 3057-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44587</v>
+        <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4001,7 +4030,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4038,14 +4067,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 9019-2022</t>
+          <t>A 3827-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44615</v>
+        <v>44587</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4058,7 +4087,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4095,14 +4124,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 20641-2022</t>
+          <t>A 9019-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44700</v>
+        <v>44615</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4115,7 +4144,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4152,14 +4181,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33046-2022</t>
+          <t>A 20641-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44785</v>
+        <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4172,7 +4201,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4209,14 +4238,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 54056-2022</t>
+          <t>A 33046-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44876</v>
+        <v>44785</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4228,13 +4257,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4271,14 +4295,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 114-2023</t>
+          <t>A 54056-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44918</v>
+        <v>44876</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4290,8 +4314,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4328,14 +4357,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2271-2023</t>
+          <t>A 114-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44938</v>
+        <v>44918</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4348,7 +4377,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4385,14 +4414,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2240-2023</t>
+          <t>A 2271-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4405,7 +4434,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4442,14 +4471,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8756-2023</t>
+          <t>A 2240-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44972</v>
+        <v>44938</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4462,7 +4491,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4499,14 +4528,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 14244-2023</t>
+          <t>A 8756-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45009</v>
+        <v>44972</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4519,7 +4548,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4556,14 +4585,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 19138-2023</t>
+          <t>A 14244-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45048</v>
+        <v>45009</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4576,7 +4605,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4613,14 +4642,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 20053-2023</t>
+          <t>A 19138-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45054</v>
+        <v>45048</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4632,13 +4661,8 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4675,14 +4699,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30002-2023</t>
+          <t>A 20053-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45109</v>
+        <v>45054</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4694,8 +4718,13 @@
           <t>VÄRMDÖ</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4732,14 +4761,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32458-2023</t>
+          <t>A 30002-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45120</v>
+        <v>45109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4752,7 +4781,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4789,14 +4818,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32455-2023</t>
+          <t>A 32458-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4809,7 +4838,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4846,14 +4875,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33958-2023</t>
+          <t>A 32455-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45124</v>
+        <v>45120</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4866,7 +4895,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4903,14 +4932,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 33164-2023</t>
+          <t>A 33958-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45126</v>
+        <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4923,7 +4952,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4960,14 +4989,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33167-2023</t>
+          <t>A 33164-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4980,7 +5009,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5017,14 +5046,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35554-2023</t>
+          <t>A 33167-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45147</v>
+        <v>45126</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5037,7 +5066,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5081,7 +5110,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45147</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>44757</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43508</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43544</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43843</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44062</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44277</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44288</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44322</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44327</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44587</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44615</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44785</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44876</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44918</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44938</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44972</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45009</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45048</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45054</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45120</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45126</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45147</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>44757</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43508</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43544</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43843</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44062</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44277</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44288</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44322</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44327</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44587</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44615</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44785</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44876</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44918</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44938</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44972</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45009</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45048</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45054</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45120</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45126</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45147</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>44757</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43508</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43544</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43843</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44062</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44277</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44288</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44322</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44327</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44587</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44615</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44785</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44876</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44918</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44938</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44972</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45009</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45048</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45054</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45120</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45126</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45147</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>44757</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43508</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43544</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43843</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44062</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44277</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44288</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44322</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44327</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44587</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44615</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44785</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44876</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44918</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44938</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44972</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45009</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45048</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45054</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45120</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45126</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>

--- a/Översikt VÄRMDÖ.xlsx
+++ b/Översikt VÄRMDÖ.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44362</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44859</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>44362</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44572</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43486</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43508</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>43682</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44288</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>45126</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>45147</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         <v>43475</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>44539</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>44757</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>43342</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>43474</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>43508</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>43508</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>43508</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2282,7 +2282,7 @@
         <v>43508</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>43508</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>43508</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2510,7 +2510,7 @@
         <v>43544</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>43593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         <v>43635</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2738,7 +2738,7 @@
         <v>43741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>43843</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44062</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2914,7 +2914,7 @@
         <v>44153</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44161</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>44277</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>44277</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         <v>44277</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         <v>44287</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44288</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         <v>44288</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44288</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>44288</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>44288</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>44322</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44327</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         <v>44412</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>44412</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         <v>44440</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>44544</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         <v>44544</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44544</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         <v>44582</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>44587</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>44615</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44700</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         <v>44785</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4302,7 +4302,7 @@
         <v>44876</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>44918</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         <v>44938</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         <v>44938</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>44972</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45009</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45048</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45054</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45109</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>45120</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45120</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>45124</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>45126</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>45126</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>45149</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
